--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt10b-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Wnt10b</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.706341</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7472728715385225</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7472728715385226</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N2">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q2">
-        <v>0.3063444082283333</v>
+        <v>0.264482088593</v>
       </c>
       <c r="R2">
-        <v>2.757099674055</v>
+        <v>2.380338797337</v>
       </c>
       <c r="S2">
-        <v>0.05808586029604725</v>
+        <v>0.03776482827678571</v>
       </c>
       <c r="T2">
-        <v>0.05808586029604724</v>
+        <v>0.03776482827678571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.706341</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7472728715385225</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7472728715385226</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q3">
         <v>2.638807255620666</v>
@@ -635,10 +635,10 @@
         <v>23.749265300586</v>
       </c>
       <c r="S3">
-        <v>0.5003433569576788</v>
+        <v>0.3767896094370458</v>
       </c>
       <c r="T3">
-        <v>0.5003433569576788</v>
+        <v>0.3767896094370459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.706341</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7472728715385225</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7472728715385226</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N4">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q4">
-        <v>1.423024715816</v>
+        <v>1.167492360104667</v>
       </c>
       <c r="R4">
-        <v>12.807222442344</v>
+        <v>10.507431240942</v>
       </c>
       <c r="S4">
-        <v>0.2698192381533591</v>
+        <v>0.1667037217089601</v>
       </c>
       <c r="T4">
-        <v>0.2698192381533591</v>
+        <v>0.1667037217089601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>0.706341</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.7472728715385225</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7472728715385226</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N5">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q5">
-        <v>0.90581640734</v>
+        <v>1.162666952322</v>
       </c>
       <c r="R5">
-        <v>8.152347666060001</v>
+        <v>10.464002570898</v>
       </c>
       <c r="S5">
-        <v>0.1717515445929148</v>
+        <v>0.1660147121157309</v>
       </c>
       <c r="T5">
-        <v>0.1717515445929147</v>
+        <v>0.1660147121157309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.079628</v>
+      </c>
+      <c r="H6">
+        <v>0.238884</v>
+      </c>
+      <c r="I6">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="J6">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.123319</v>
+      </c>
+      <c r="N6">
+        <v>3.369957</v>
+      </c>
+      <c r="O6">
+        <v>0.05053686506648315</v>
+      </c>
+      <c r="P6">
+        <v>0.05053686506648315</v>
+      </c>
+      <c r="Q6">
+        <v>0.08944764533200002</v>
+      </c>
+      <c r="R6">
+        <v>0.8050288079880001</v>
+      </c>
+      <c r="S6">
+        <v>0.01277203678969744</v>
+      </c>
+      <c r="T6">
+        <v>0.01277203678969744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.079628</v>
+      </c>
+      <c r="H7">
+        <v>0.238884</v>
+      </c>
+      <c r="I7">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="J7">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11.20764866666667</v>
+      </c>
+      <c r="N7">
+        <v>33.622946</v>
+      </c>
+      <c r="O7">
+        <v>0.5042195746532222</v>
+      </c>
+      <c r="P7">
+        <v>0.5042195746532223</v>
+      </c>
+      <c r="Q7">
+        <v>0.8924426480293333</v>
+      </c>
+      <c r="R7">
+        <v>8.031983832264</v>
+      </c>
+      <c r="S7">
+        <v>0.1274299652161764</v>
+      </c>
+      <c r="T7">
+        <v>0.1274299652161764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.079628</v>
+      </c>
+      <c r="H8">
+        <v>0.238884</v>
+      </c>
+      <c r="I8">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="J8">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.958620666666667</v>
+      </c>
+      <c r="N8">
+        <v>14.875862</v>
+      </c>
+      <c r="O8">
+        <v>0.2230827962023326</v>
+      </c>
+      <c r="P8">
+        <v>0.2230827962023326</v>
+      </c>
+      <c r="Q8">
+        <v>0.3948450464453334</v>
+      </c>
+      <c r="R8">
+        <v>3.553605418008</v>
+      </c>
+      <c r="S8">
+        <v>0.0563790744933725</v>
+      </c>
+      <c r="T8">
+        <v>0.0563790744933725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.079628</v>
+      </c>
+      <c r="H9">
+        <v>0.238884</v>
+      </c>
+      <c r="I9">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="J9">
+        <v>0.2527271284614774</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.938126</v>
+      </c>
+      <c r="N9">
+        <v>14.814378</v>
+      </c>
+      <c r="O9">
+        <v>0.222160764077962</v>
+      </c>
+      <c r="P9">
+        <v>0.222160764077962</v>
+      </c>
+      <c r="Q9">
+        <v>0.3932130971280001</v>
+      </c>
+      <c r="R9">
+        <v>3.538917874152001</v>
+      </c>
+      <c r="S9">
+        <v>0.05614605196223107</v>
+      </c>
+      <c r="T9">
+        <v>0.05614605196223108</v>
       </c>
     </row>
   </sheetData>
